--- a/General.Mvc/wwwroot/Files/importfile/采购计划模板.xlsx
+++ b/General.Mvc/wwwroot/Files/importfile/采购计划模板.xlsx
@@ -16,19 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t xml:space="preserve">铜薄板  </t>
-  </si>
-  <si>
-    <t>C11000-060</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ASTMB152 </t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
   <si>
     <t>224-229</t>
   </si>
@@ -134,39 +122,117 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>采购订单数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARJ201220-0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铝薄板</t>
+  </si>
+  <si>
+    <t>2024-O</t>
+  </si>
+  <si>
+    <t>AMS-QQ-A-250/5</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>2QT</t>
+  </si>
+  <si>
     <t>PC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>密封胶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5KG/套</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公斤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>套</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.46M2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>采购订单数量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>ARJ201220-0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMS-QQ-A-250/5 </t>
+  </si>
+  <si>
+    <t>1PT</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>ARJ201220-0003</t>
+  </si>
+  <si>
+    <t>7075-O</t>
+  </si>
+  <si>
+    <t>AMS4048</t>
+  </si>
+  <si>
+    <t>6OZ</t>
+  </si>
+  <si>
+    <t>ARJ201220-0004</t>
+  </si>
+  <si>
+    <t>铝板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7075-T6  </t>
+  </si>
+  <si>
+    <t>AMS4049 MRS</t>
+  </si>
+  <si>
+    <t>4.46m2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARJ201220-0005</t>
+  </si>
+  <si>
+    <t>4.46平方米</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平方米</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>224-230</t>
+  </si>
+  <si>
+    <t>物料需求计划，2020.09.09版</t>
+  </si>
+  <si>
+    <t>224-231</t>
+  </si>
+  <si>
+    <t>物料需求计划，2020.09.10版</t>
+  </si>
+  <si>
+    <t>224-232</t>
+  </si>
+  <si>
+    <t>物料需求计划，2020.09.11版</t>
+  </si>
+  <si>
+    <t>224-233</t>
+  </si>
+  <si>
+    <t>物料需求计划，2020.09.12版</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -392,6 +458,14 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="26">
     <fill>
@@ -545,7 +619,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -675,6 +749,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1424,7 +1509,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1443,8 +1528,20 @@
     <xf numFmtId="0" fontId="30" fillId="25" borderId="1" xfId="258" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="1" xfId="248" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="260">
@@ -1999,125 +2096,131 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="15" max="15" width="14.375" customWidth="1"/>
+    <col min="17" max="17" width="14.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:20" ht="27">
+      <c r="A2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="B2" s="7">
+        <v>100976</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="27" customHeight="1">
-      <c r="A2" s="2">
+      <c r="E2" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="6">
+        <v>48</v>
+      </c>
+      <c r="H2" s="6">
+        <v>144</v>
+      </c>
+      <c r="I2" s="10">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
-        <v>100676</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="J2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="6">
+        <v>4.46</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2">
-        <v>0.125</v>
-      </c>
-      <c r="G2" s="2">
-        <v>48</v>
-      </c>
-      <c r="H2" s="2">
-        <v>144</v>
-      </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="2">
-        <v>4.46</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>25</v>
+      <c r="N2" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="O2" s="3">
         <v>44256</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2">
         <v>10500053</v>
@@ -2125,45 +2228,242 @@
       <c r="S2" s="2"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" ht="27" customHeight="1">
-      <c r="A3" s="2">
+    <row r="3" spans="1:20" ht="27">
+      <c r="A3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="7">
+        <v>102828</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G3" s="6">
+        <v>48</v>
+      </c>
+      <c r="H3" s="6">
+        <v>144</v>
+      </c>
+      <c r="I3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
       <c r="J3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="2">
-        <v>2</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="K3" s="6">
+        <v>5.46</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" s="6">
+        <v>20</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="3">
+        <v>44257</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="2">
+        <v>10500054</v>
+      </c>
       <c r="S3" s="2"/>
       <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" ht="27">
+      <c r="A4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="7">
+        <v>100086</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="6">
+        <v>6.3E-2</v>
+      </c>
+      <c r="G4" s="6">
+        <v>48</v>
+      </c>
+      <c r="H4" s="6">
+        <v>144</v>
+      </c>
+      <c r="I4" s="9">
+        <v>3</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="6">
+        <v>6.46</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" s="6">
+        <v>4</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="3">
+        <v>44258</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R4" s="2">
+        <v>10500055</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" ht="27">
+      <c r="A5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="7">
+        <v>107202</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="6">
+        <v>48</v>
+      </c>
+      <c r="H5" s="6">
+        <v>144</v>
+      </c>
+      <c r="I5" s="10">
+        <v>4</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="6">
+        <v>7.46</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="6">
+        <v>6</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O5" s="3">
+        <v>44259</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5" s="2">
+        <v>10500056</v>
+      </c>
+      <c r="S5" s="2"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" ht="27">
+      <c r="A6" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="7">
+        <v>107202</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="6">
+        <v>48</v>
+      </c>
+      <c r="H6" s="6">
+        <v>144</v>
+      </c>
+      <c r="I6" s="10">
+        <v>5</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="6">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" s="6">
+        <v>5</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O6" s="3">
+        <v>44260</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" s="2">
+        <v>10500057</v>
+      </c>
+      <c r="S6" s="2"/>
+      <c r="T6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/General.Mvc/wwwroot/Files/importfile/采购计划模板.xlsx
+++ b/General.Mvc/wwwroot/Files/importfile/采购计划模板.xlsx
@@ -619,7 +619,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -749,17 +749,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1509,7 +1498,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1537,10 +1526,7 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2099,16 +2085,17 @@
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
     <col min="15" max="15" width="14.375" customWidth="1"/>
     <col min="17" max="17" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="21">
+    <row r="1" spans="1:20">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2195,7 +2182,7 @@
       <c r="H2" s="6">
         <v>144</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="9">
         <v>1</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -2253,7 +2240,7 @@
       <c r="H3" s="6">
         <v>144</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="6">
         <v>2</v>
       </c>
       <c r="J3" s="6" t="s">
@@ -2311,7 +2298,7 @@
       <c r="H4" s="6">
         <v>144</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="6">
         <v>3</v>
       </c>
       <c r="J4" s="6" t="s">
@@ -2369,7 +2356,7 @@
       <c r="H5" s="6">
         <v>144</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="9">
         <v>4</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -2427,7 +2414,7 @@
       <c r="H6" s="6">
         <v>144</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="9">
         <v>5</v>
       </c>
       <c r="J6" s="6" t="s">

--- a/General.Mvc/wwwroot/Files/importfile/采购计划模板.xlsx
+++ b/General.Mvc/wwwroot/Files/importfile/采购计划模板.xlsx
@@ -294,6 +294,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -429,6 +430,7 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2085,7 +2087,7 @@
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2273,7 +2275,7 @@
       <c r="S3" s="2"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="27">
+    <row r="4" spans="1:20" ht="21">
       <c r="A4" s="6" t="s">
         <v>33</v>
       </c>
